--- a/metrics/transfer_time/cleaned_data/nginx_04.vda.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_04.vda.xlsx
@@ -2804,7 +2804,9 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
@@ -2840,7 +2842,9 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J63" t="n">
         <v>1</v>
       </c>
@@ -2876,7 +2880,9 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
@@ -2912,7 +2918,9 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
@@ -2948,7 +2956,9 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
@@ -2984,7 +2994,9 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
@@ -3020,7 +3032,9 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J68" t="n">
         <v>2</v>
       </c>
@@ -3056,7 +3070,9 @@
       <c r="H69" t="n">
         <v>0.1</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J69" t="n">
         <v>2</v>
       </c>
@@ -3092,7 +3108,9 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
@@ -3128,7 +3146,9 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
@@ -3164,7 +3184,9 @@
       <c r="H72" t="n">
         <v>0.1</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J72" t="n">
         <v>9</v>
       </c>
@@ -3200,7 +3222,9 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
@@ -3236,7 +3260,9 @@
       <c r="H74" t="n">
         <v>0.1</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J74" t="n">
         <v>9</v>
       </c>
@@ -3272,7 +3298,9 @@
       <c r="H75" t="n">
         <v>0.1</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J75" t="n">
         <v>12</v>
       </c>
@@ -3308,7 +3336,9 @@
       <c r="H76" t="n">
         <v>0.1</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J76" t="n">
         <v>6</v>
       </c>
@@ -3344,7 +3374,9 @@
       <c r="H77" t="n">
         <v>0.1</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J77" t="n">
         <v>10</v>
       </c>
@@ -3380,7 +3412,9 @@
       <c r="H78" t="n">
         <v>0.1</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J78" t="n">
         <v>6</v>
       </c>
@@ -3416,7 +3450,9 @@
       <c r="H79" t="n">
         <v>0.2</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J79" t="n">
         <v>11</v>
       </c>
@@ -3452,7 +3488,9 @@
       <c r="H80" t="n">
         <v>0.1</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J80" t="n">
         <v>10</v>
       </c>
@@ -3488,7 +3526,9 @@
       <c r="H81" t="n">
         <v>0.1</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J81" t="n">
         <v>11</v>
       </c>
@@ -3524,7 +3564,9 @@
       <c r="H82" t="n">
         <v>0.1</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J82" t="n">
         <v>10</v>
       </c>
@@ -3560,7 +3602,9 @@
       <c r="H83" t="n">
         <v>0.1</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J83" t="n">
         <v>12</v>
       </c>
@@ -3596,7 +3640,9 @@
       <c r="H84" t="n">
         <v>0.2</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J84" t="n">
         <v>2</v>
       </c>
@@ -3632,7 +3678,9 @@
       <c r="H85" t="n">
         <v>0.1</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J85" t="n">
         <v>4</v>
       </c>
@@ -3668,7 +3716,9 @@
       <c r="H86" t="n">
         <v>0.1</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J86" t="n">
         <v>1</v>
       </c>
@@ -3704,7 +3754,9 @@
       <c r="H87" t="n">
         <v>0.2</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J87" t="n">
         <v>2</v>
       </c>
@@ -3740,7 +3792,9 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
@@ -3776,7 +3830,9 @@
       <c r="H89" t="n">
         <v>0.1</v>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J89" t="n">
         <v>1</v>
       </c>
@@ -3812,7 +3868,9 @@
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J90" t="n">
         <v>3</v>
       </c>
@@ -3848,7 +3906,9 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
@@ -3884,7 +3944,9 @@
       <c r="H92" t="n">
         <v>0.1</v>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J92" t="n">
         <v>2</v>
       </c>
@@ -3920,7 +3982,9 @@
       <c r="H93" t="n">
         <v>0.1</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
@@ -3956,7 +4020,9 @@
       <c r="H94" t="n">
         <v>0.2</v>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J94" t="n">
         <v>11</v>
       </c>
@@ -3992,7 +4058,9 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
@@ -4028,7 +4096,9 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
@@ -4064,7 +4134,9 @@
       <c r="H97" t="n">
         <v>0.1</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
@@ -4100,7 +4172,9 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J98" t="n">
         <v>1</v>
       </c>
@@ -4136,7 +4210,9 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
@@ -4172,7 +4248,9 @@
       <c r="H100" t="n">
         <v>14.4</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
@@ -4208,7 +4286,9 @@
       <c r="H101" t="n">
         <v>47.4</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
@@ -4244,7 +4324,9 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
@@ -4280,7 +4362,9 @@
       <c r="H103" t="n">
         <v>0.1</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J103" t="n">
         <v>2</v>
       </c>
@@ -4316,7 +4400,9 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J104" t="n">
         <v>1</v>
       </c>
@@ -4352,7 +4438,9 @@
       <c r="H105" t="n">
         <v>0.2</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J105" t="n">
         <v>11</v>
       </c>
@@ -4388,7 +4476,9 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
@@ -4424,7 +4514,9 @@
       <c r="H107" t="n">
         <v>0.1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J107" t="n">
         <v>3</v>
       </c>
@@ -4460,7 +4552,9 @@
       <c r="H108" t="n">
         <v>0.1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J108" t="n">
         <v>2</v>
       </c>
@@ -4496,7 +4590,9 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
@@ -4532,7 +4628,9 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
@@ -4568,7 +4666,9 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
@@ -4604,7 +4704,9 @@
       <c r="H112" t="n">
         <v>0.2</v>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J112" t="n">
         <v>2</v>
       </c>
@@ -4640,7 +4742,9 @@
       <c r="H113" t="n">
         <v>0.1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J113" t="n">
         <v>1</v>
       </c>
@@ -4676,7 +4780,9 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
@@ -4712,7 +4818,9 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
@@ -4748,7 +4856,9 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
@@ -4784,7 +4894,9 @@
       <c r="H117" t="n">
         <v>0.3</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J117" t="n">
         <v>12</v>
       </c>
@@ -4820,7 +4932,9 @@
       <c r="H118" t="n">
         <v>0.1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J118" t="n">
         <v>1</v>
       </c>
@@ -4856,7 +4970,9 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
@@ -4892,7 +5008,9 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J120" t="n">
         <v>0</v>
       </c>
@@ -4928,7 +5046,9 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
